--- a/értékelés.xlsx
+++ b/értékelés.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Marci</t>
   </si>
@@ -50,15 +50,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Pont(skeleton leadás nélkül…)</t>
-  </si>
-  <si>
-    <t>Esztimáció(15/20-at feltéve)</t>
-  </si>
-  <si>
-    <t>Év végi pontszámban hány pont(esztimálttal)</t>
-  </si>
-  <si>
     <t>&lt;--Skeleton</t>
   </si>
   <si>
@@ -66,6 +57,12 @@
   </si>
   <si>
     <t>&lt;--Proto</t>
+  </si>
+  <si>
+    <t>Pont(skeleton)</t>
+  </si>
+  <si>
+    <t>Év végi pontszámban hány pont(skeleton)</t>
   </si>
 </sst>
 </file>
@@ -399,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,8 +445,8 @@
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>SUM(A2:E14)</f>
-        <v>103</v>
+        <f>SUM(A2:E15)</f>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -541,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -562,11 +559,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.5</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
       <c r="E11">
         <v>2.5</v>
@@ -585,10 +588,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -596,38 +599,43 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>SUM(A2:A9)</f>
-        <v>5</v>
+        <f>SUM(A2:A14)</f>
+        <v>9.5</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B14)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <f>SUM(C2:C14)</f>
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="D17">
-        <f>SUM(D2:D10)</f>
-        <v>14.5</v>
+        <f>SUM(D2:D11)</f>
+        <v>17.5</v>
       </c>
       <c r="E17">
-        <f>SUM(E2:E14)</f>
-        <v>43</v>
+        <f>SUM(E2:E15)</f>
+        <v>46.5</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -636,23 +644,23 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" ref="A18:D18" si="0">A17/$F$2*100</f>
-        <v>4.8543689320388346</v>
+        <v>7.8512396694214877</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>18.446601941747574</v>
+        <v>19.008264462809919</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>19.902912621359224</v>
+        <v>20.24793388429752</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>14.077669902912621</v>
+        <v>14.46280991735537</v>
       </c>
       <c r="E18" s="2">
         <f>E17/$F$2*100</f>
-        <v>41.747572815533978</v>
+        <v>38.429752066115704</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -660,86 +668,58 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" ref="A19:D19" si="1">205*A18/100</f>
-        <v>9.9514563106796103</v>
+        <f>295*A18/100</f>
+        <v>23.161157024793386</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="1"/>
-        <v>37.815533980582529</v>
+        <f>295*B18/100</f>
+        <v>56.074380165289256</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="1"/>
-        <v>40.800970873786412</v>
+        <f t="shared" ref="C19:E19" si="1">295*C18/100</f>
+        <v>59.731404958677686</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>28.859223300970875</v>
+        <v>42.665289256198342</v>
       </c>
       <c r="E19" s="3">
-        <f>205*E18/100</f>
-        <v>85.582524271844648</v>
+        <f t="shared" si="1"/>
+        <v>113.36776859504133</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" ref="A20:D20" si="2">280*A18/100</f>
-        <v>13.592233009708737</v>
+        <f>A19*0.3</f>
+        <v>6.9483471074380159</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="2"/>
-        <v>51.650485436893206</v>
+        <f>B19*0.3</f>
+        <v>16.822314049586776</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="2"/>
-        <v>55.728155339805824</v>
+        <f t="shared" ref="C20:E20" si="2">C19*0.3</f>
+        <v>17.919421487603305</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="2"/>
-        <v>39.417475728155338</v>
+        <v>12.799586776859503</v>
       </c>
       <c r="E20" s="3">
-        <f>280*E18/100</f>
-        <v>116.89320388349513</v>
+        <f t="shared" si="2"/>
+        <v>34.010330578512395</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f t="shared" ref="A21:D21" si="3">A20*0.3</f>
-        <v>4.0776699029126213</v>
-      </c>
-      <c r="B21" s="3">
-        <f t="shared" si="3"/>
-        <v>15.495145631067961</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="3"/>
-        <v>16.718446601941746</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="3"/>
-        <v>11.825242718446601</v>
-      </c>
-      <c r="E21" s="3">
-        <f>E20*0.3</f>
-        <v>35.067961165048537</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/értékelés.xlsx
+++ b/értékelés.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Marci</t>
   </si>
@@ -53,16 +53,22 @@
     <t>&lt;--Skeleton</t>
   </si>
   <si>
-    <t>#outdated</t>
-  </si>
-  <si>
     <t>&lt;--Proto</t>
   </si>
   <si>
-    <t>Pont(skeleton)</t>
-  </si>
-  <si>
-    <t>Év végi pontszámban hány pont(skeleton)</t>
+    <t>Pont(skeletonból évvégén)</t>
+  </si>
+  <si>
+    <t>Pont(protóból évvégén)</t>
+  </si>
+  <si>
+    <t>Pont(grafból évvégén yet)</t>
+  </si>
+  <si>
+    <t>Évvégi pontok eddig</t>
+  </si>
+  <si>
+    <t>&lt;--Graf</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,8 +451,8 @@
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>SUM(A2:E15)</f>
-        <v>121</v>
+        <f>SUM(A2:E19)</f>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,113 +619,178 @@
         <v>3.5</v>
       </c>
       <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ref="A23:D23" si="0">SUM(A2:A18)</f>
+        <v>9.5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E2:E18)</f>
+        <v>48.5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" ref="A24:D24" si="1">A23/$F$2*100</f>
+        <v>7.4803149606299222</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>18.110236220472441</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>20.866141732283463</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>15.354330708661418</v>
+      </c>
+      <c r="E24" s="2">
+        <f>E23/$F$2*100</f>
+        <v>38.188976377952756</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" ref="A25:D25" si="2">59*5*A24/100*0.3</f>
+        <v>6.6200787401574805</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>16.027559055118111</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>18.466535433070863</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>13.588582677165356</v>
+      </c>
+      <c r="E25" s="3">
+        <f>59*5*E24/100*0.3</f>
+        <v>33.797244094488192</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>SUM(A2:A14)</f>
-        <v>9.5</v>
-      </c>
-      <c r="B17">
-        <f>SUM(B2:B14)</f>
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <f>SUM(C2:C14)</f>
-        <v>24.5</v>
-      </c>
-      <c r="D17">
-        <f>SUM(D2:D11)</f>
-        <v>17.5</v>
-      </c>
-      <c r="E17">
-        <f>SUM(E2:E15)</f>
-        <v>46.5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f t="shared" ref="A18:D18" si="0">A17/$F$2*100</f>
-        <v>7.8512396694214877</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>19.008264462809919</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>20.24793388429752</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>14.46280991735537</v>
-      </c>
-      <c r="E18" s="2">
-        <f>E17/$F$2*100</f>
-        <v>38.429752066115704</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f>295*A18/100</f>
-        <v>23.161157024793386</v>
-      </c>
-      <c r="B19" s="3">
-        <f>295*B18/100</f>
-        <v>56.074380165289256</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:E19" si="1">295*C18/100</f>
-        <v>59.731404958677686</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>42.665289256198342</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>113.36776859504133</v>
-      </c>
-      <c r="F19" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" ref="A26:D26" si="3">69*5*A24/100*0.5</f>
+        <v>12.903543307086615</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="3"/>
+        <v>31.240157480314959</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="3"/>
+        <v>35.994094488188978</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="3"/>
+        <v>26.486220472440944</v>
+      </c>
+      <c r="E26" s="3">
+        <f>69*5*E24/100*0.5</f>
+        <v>65.875984251968504</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <f>A19*0.3</f>
-        <v>6.9483471074380159</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B19*0.3</f>
-        <v>16.822314049586776</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:E20" si="2">C19*0.3</f>
-        <v>17.919421487603305</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="2"/>
-        <v>12.799586776859503</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="2"/>
-        <v>34.010330578512395</v>
-      </c>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" ref="A27:D27" si="4">15*5*A24/100*0.2</f>
+        <v>1.1220472440944884</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="4"/>
+        <v>2.7165354330708662</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="4"/>
+        <v>3.1299212598425195</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="4"/>
+        <v>2.3031496062992129</v>
+      </c>
+      <c r="E27" s="3">
+        <f>15*5*E24/100*0.2</f>
+        <v>5.7283464566929139</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
-        <v>9</v>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" ref="A28:D28" si="5">SUM(A25:A27)</f>
+        <v>20.645669291338585</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="5"/>
+        <v>49.984251968503933</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="5"/>
+        <v>57.590551181102356</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="5"/>
+        <v>42.377952755905511</v>
+      </c>
+      <c r="E28" s="3">
+        <f>SUM(E25:E27)</f>
+        <v>105.40157480314961</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/értékelés.xlsx
+++ b/értékelés.xlsx
@@ -404,13 +404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,7 +452,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(A2:E19)</f>
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,6 +623,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="C16">
         <v>2</v>
       </c>
@@ -634,11 +637,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
@@ -650,11 +659,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>29.5</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -671,23 +680,23 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" ref="A24:D24" si="1">A23/$F$2*100</f>
-        <v>7.4803149606299222</v>
+        <v>7.1969696969696972</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="1"/>
-        <v>18.110236220472441</v>
+        <v>18.939393939393938</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>20.866141732283463</v>
+        <v>22.348484848484848</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>15.354330708661418</v>
+        <v>14.772727272727273</v>
       </c>
       <c r="E24" s="2">
         <f>E23/$F$2*100</f>
-        <v>38.188976377952756</v>
+        <v>36.742424242424242</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
@@ -696,23 +705,23 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" ref="A25:D25" si="2">59*5*A24/100*0.3</f>
-        <v>6.6200787401574805</v>
+        <v>6.3693181818181817</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="2"/>
-        <v>16.027559055118111</v>
+        <v>16.761363636363633</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="2"/>
-        <v>18.466535433070863</v>
+        <v>19.77840909090909</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="2"/>
-        <v>13.588582677165356</v>
+        <v>13.073863636363638</v>
       </c>
       <c r="E25" s="3">
         <f>59*5*E24/100*0.3</f>
-        <v>33.797244094488192</v>
+        <v>32.517045454545453</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -721,23 +730,23 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" ref="A26:D26" si="3">69*5*A24/100*0.5</f>
-        <v>12.903543307086615</v>
+        <v>12.414772727272727</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="3"/>
-        <v>31.240157480314959</v>
+        <v>32.67045454545454</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="3"/>
-        <v>35.994094488188978</v>
+        <v>38.55113636363636</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="3"/>
-        <v>26.486220472440944</v>
+        <v>25.482954545454547</v>
       </c>
       <c r="E26" s="3">
         <f>69*5*E24/100*0.5</f>
-        <v>65.875984251968504</v>
+        <v>63.38068181818182</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -746,23 +755,23 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" ref="A27:D27" si="4">15*5*A24/100*0.2</f>
-        <v>1.1220472440944884</v>
+        <v>1.0795454545454546</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="4"/>
-        <v>2.7165354330708662</v>
+        <v>2.8409090909090908</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="4"/>
-        <v>3.1299212598425195</v>
+        <v>3.3522727272727275</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="4"/>
-        <v>2.3031496062992129</v>
+        <v>2.2159090909090913</v>
       </c>
       <c r="E27" s="3">
         <f>15*5*E24/100*0.2</f>
-        <v>5.7283464566929139</v>
+        <v>5.5113636363636367</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -771,23 +780,23 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" ref="A28:D28" si="5">SUM(A25:A27)</f>
-        <v>20.645669291338585</v>
+        <v>19.86363636363636</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="5"/>
-        <v>49.984251968503933</v>
+        <v>52.272727272727266</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="5"/>
-        <v>57.590551181102356</v>
+        <v>61.68181818181818</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="5"/>
-        <v>42.377952755905511</v>
+        <v>40.77272727272728</v>
       </c>
       <c r="E28" s="3">
         <f>SUM(E25:E27)</f>
-        <v>105.40157480314961</v>
+        <v>101.40909090909092</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>

--- a/értékelés.xlsx
+++ b/értékelés.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Marci</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Össz(ember)</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>&lt;--Skeleton</t>
   </si>
   <si>
@@ -69,6 +66,15 @@
   </si>
   <si>
     <t>&lt;--Graf</t>
+  </si>
+  <si>
+    <t>szkeleton %-ok</t>
+  </si>
+  <si>
+    <t>proto %-ok</t>
+  </si>
+  <si>
+    <t>%végső</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:F24"/>
+      <selection activeCell="E27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +458,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(A2:E19)</f>
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,10 +625,13 @@
         <v>3.5</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
       <c r="B16">
         <v>2</v>
       </c>
@@ -648,14 +657,22 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>14</v>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" ref="A23:D23" si="0">SUM(A2:A18)</f>
-        <v>9.5</v>
+        <f t="shared" ref="A23:D23" si="0">SUM(A2:A19)</f>
+        <v>21.5</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -667,10 +684,10 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>29.5</v>
       </c>
       <c r="E23">
-        <f>SUM(E2:E18)</f>
+        <f>SUM(E2:E19)</f>
         <v>48.5</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -680,126 +697,166 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" ref="A24:D24" si="1">A23/$F$2*100</f>
-        <v>7.1969696969696972</v>
+        <v>13.961038961038961</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="1"/>
-        <v>18.939393939393938</v>
+        <v>16.233766233766232</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>22.348484848484848</v>
+        <v>19.155844155844157</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>14.772727272727273</v>
+        <v>19.155844155844157</v>
       </c>
       <c r="E24" s="2">
         <f>E23/$F$2*100</f>
-        <v>36.742424242424242</v>
+        <v>31.493506493506494</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" ref="A25:D25" si="2">59*5*A24/100*0.3</f>
-        <v>6.3693181818181817</v>
+        <f t="shared" ref="A25:D25" si="2">59*5*A30/100*0.3</f>
+        <v>6.6020999999999992</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="2"/>
-        <v>16.761363636363633</v>
+        <v>13.213050000000001</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="2"/>
-        <v>19.77840909090909</v>
+        <v>19.151399999999999</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="2"/>
-        <v>13.073863636363638</v>
+        <v>17.168999999999997</v>
       </c>
       <c r="E25" s="3">
-        <f>59*5*E24/100*0.3</f>
-        <v>32.517045454545453</v>
+        <f>59*5*E30/100*0.3</f>
+        <v>32.364449999999998</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" ref="A26:D26" si="3">69*5*A24/100*0.5</f>
-        <v>12.414772727272727</v>
+        <f t="shared" ref="A26:D26" si="3">69*5*A31/100*0.5</f>
+        <v>13.54125</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="3"/>
-        <v>32.67045454545454</v>
+        <v>32.792250000000003</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="3"/>
-        <v>38.55113636363636</v>
+        <v>34.931249999999999</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="3"/>
-        <v>25.482954545454547</v>
+        <v>24.943500000000004</v>
       </c>
       <c r="E26" s="3">
-        <f>69*5*E24/100*0.5</f>
-        <v>63.38068181818182</v>
+        <f>69*5*E31/100*0.5</f>
+        <v>66.291750000000008</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" ref="A27:D27" si="4">15*5*A24/100*0.2</f>
-        <v>1.0795454545454546</v>
+        <f t="shared" ref="A27:D27" si="4">31*5*A24/100*0.2</f>
+        <v>4.3279220779220777</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="4"/>
-        <v>2.8409090909090908</v>
+        <v>5.0324675324675319</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="4"/>
-        <v>3.3522727272727275</v>
+        <v>5.9383116883116891</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="4"/>
-        <v>2.2159090909090913</v>
+        <v>5.9383116883116891</v>
       </c>
       <c r="E27" s="3">
-        <f>15*5*E24/100*0.2</f>
-        <v>5.5113636363636367</v>
+        <f>31*5*E24/100*0.2</f>
+        <v>9.7629870129870131</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" ref="A28:D28" si="5">SUM(A25:A27)</f>
-        <v>19.86363636363636</v>
+        <v>24.471272077922077</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="5"/>
-        <v>52.272727272727266</v>
+        <v>51.037767532467541</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="5"/>
-        <v>61.68181818181818</v>
+        <v>60.020961688311687</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="5"/>
-        <v>40.77272727272728</v>
+        <v>48.050811688311683</v>
       </c>
       <c r="E28" s="3">
         <f>SUM(E25:E27)</f>
-        <v>101.40909090909092</v>
+        <v>108.41918701298702</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.46</v>
+      </c>
+      <c r="B30">
+        <v>14.93</v>
+      </c>
+      <c r="C30">
+        <v>21.64</v>
+      </c>
+      <c r="D30">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E30">
+        <v>36.57</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7.85</v>
+      </c>
+      <c r="B31">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C31">
+        <v>20.25</v>
+      </c>
+      <c r="D31">
+        <v>14.46</v>
+      </c>
+      <c r="E31">
+        <v>38.43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/értékelés.xlsx
+++ b/értékelés.xlsx
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,16 +116,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,7 +428,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="A27:E27"/>
+      <selection activeCell="A23" sqref="A23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,251 +438,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>2.5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>2.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>2.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>2.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>4.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <f>SUM(A2:E19)</f>
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>1.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>0.5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>1.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
         <v>4.5</v>
       </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>2.5</v>
       </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
         <v>2.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>3.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>5</v>
       </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>5</v>
       </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>1.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>3.5</v>
       </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>3.5</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>2.5</v>
       </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>3.5</v>
       </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>4</v>
       </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>5</v>
       </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>3.5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>6</v>
       </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -721,24 +782,24 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" ref="A25:D25" si="2">59*5*A30/100*0.3</f>
-        <v>6.6020999999999992</v>
+        <f t="shared" ref="A25:D25" si="2">59*5*A24/100*0.3</f>
+        <v>12.355519480519481</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="2"/>
-        <v>13.213050000000001</v>
+        <v>14.366883116883116</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="2"/>
-        <v>19.151399999999999</v>
+        <v>16.952922077922079</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="2"/>
-        <v>17.168999999999997</v>
+        <v>16.952922077922079</v>
       </c>
       <c r="E25" s="3">
-        <f>59*5*E30/100*0.3</f>
-        <v>32.364449999999998</v>
+        <f>59*5*E24/100*0.3</f>
+        <v>27.871753246753244</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
@@ -746,24 +807,24 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" ref="A26:D26" si="3">69*5*A31/100*0.5</f>
-        <v>13.54125</v>
+        <f t="shared" ref="A26:D26" si="3">69*5*A24/100*0.5</f>
+        <v>24.08279220779221</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="3"/>
-        <v>32.792250000000003</v>
+        <v>28.003246753246749</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="3"/>
-        <v>34.931249999999999</v>
+        <v>33.043831168831169</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="3"/>
-        <v>24.943500000000004</v>
+        <v>33.043831168831169</v>
       </c>
       <c r="E26" s="3">
-        <f>69*5*E31/100*0.5</f>
-        <v>66.291750000000008</v>
+        <f>69*5*E24/100*0.5</f>
+        <v>54.326298701298704</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -797,23 +858,23 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" ref="A28:D28" si="5">SUM(A25:A27)</f>
-        <v>24.471272077922077</v>
+        <v>40.766233766233768</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="5"/>
-        <v>51.037767532467541</v>
+        <v>47.402597402597394</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="5"/>
-        <v>60.020961688311687</v>
+        <v>55.935064935064929</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="5"/>
-        <v>48.050811688311683</v>
+        <v>55.935064935064929</v>
       </c>
       <c r="E28" s="3">
         <f>SUM(E25:E27)</f>
-        <v>108.41918701298702</v>
+        <v>91.961038961038966</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
